--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Raj\git\code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Raj\git\edureka_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C206EB-664F-4AEE-9D0D-8B4BB002308B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9DC674-01E3-4069-9ADA-D37ABBABE301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Topics</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>C2 - 1:47:0</t>
+  </si>
+  <si>
+    <t>AOP example program diagram</t>
   </si>
 </sst>
 </file>
@@ -219,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -231,7 +234,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -260,9 +262,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>478643</xdr:colOff>
+      <xdr:colOff>474833</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>15414</xdr:rowOff>
+      <xdr:rowOff>19224</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -306,7 +308,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>492666</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>134861</xdr:rowOff>
+      <xdr:rowOff>131051</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -608,10 +610,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -847,8 +849,8 @@
       <c r="B45" t="s">
         <v>23</v>
       </c>
-      <c r="C45" s="7">
-        <v>6.9444444444444447E-4</v>
+      <c r="C45" s="3">
+        <v>4.3055555555555562E-2</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -856,7 +858,7 @@
         <v>24</v>
       </c>
       <c r="C46" s="3">
-        <v>8.1018518518518516E-4</v>
+        <v>4.8611111111111112E-2</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -864,7 +866,7 @@
         <v>25</v>
       </c>
       <c r="C47" s="3">
-        <v>8.6805555555555551E-4</v>
+        <v>5.2083333333333336E-2</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.3">
@@ -872,7 +874,7 @@
         <v>26</v>
       </c>
       <c r="C49" s="3">
-        <v>1.3888888888888889E-3</v>
+        <v>8.3368055555555556E-2</v>
       </c>
     </row>
     <row r="50" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -893,6 +895,14 @@
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0.1170486111111111</v>
       </c>
     </row>
   </sheetData>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Raj\git\edureka_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9DC674-01E3-4069-9ADA-D37ABBABE301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A135028-BA65-4470-A7B3-27F61692B8C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Spring Questions" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Topics</t>
   </si>
@@ -173,6 +174,30 @@
   </si>
   <si>
     <t>AOP example program diagram</t>
+  </si>
+  <si>
+    <t>Talk about Spring History</t>
+  </si>
+  <si>
+    <t>What is IOC</t>
+  </si>
+  <si>
+    <t>a design pattern where an external component/factory will create the objects and give it to the application based on the configuration</t>
+  </si>
+  <si>
+    <t>what is DI?</t>
+  </si>
+  <si>
+    <t>An Object is passed to other object using Setter method or constructor injection</t>
+  </si>
+  <si>
+    <t>What is AutoWiring</t>
+  </si>
+  <si>
+    <t>Using Property name and Ref is how we inject Dependencies manually . Using @AutoWired we can automatically Inject the dependend Object/s. There are 3 types of Autowiring which byName, byType and constructor.</t>
+  </si>
+  <si>
+    <t>Spring JDBC</t>
   </si>
 </sst>
 </file>
@@ -262,9 +287,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>474833</xdr:colOff>
+      <xdr:colOff>478643</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>19224</xdr:rowOff>
+      <xdr:rowOff>15414</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -308,7 +333,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>492666</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>131051</xdr:rowOff>
+      <xdr:rowOff>134861</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -610,10 +635,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -869,7 +894,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B49" s="2" t="s">
         <v>26</v>
       </c>
@@ -877,37 +902,101 @@
         <v>8.3368055555555556E-2</v>
       </c>
     </row>
-    <row r="50" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B50" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B51" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>47</v>
       </c>
       <c r="C54" s="3">
         <v>0.1170486111111111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>45234</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" s="3">
+        <v>1.2731481481481483E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D71CDDC4-B53F-464F-9F5A-51154B9FF1E5}">
+  <dimension ref="A2:A12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="124.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Raj\git\edureka_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A135028-BA65-4470-A7B3-27F61692B8C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A12337-DE05-484B-9288-151412AC4DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Topics</t>
   </si>
@@ -113,9 +113,6 @@
     <t>Spring AOP</t>
   </si>
   <si>
-    <t>Cross cutting concerns are not part of business logic but will help the app in different ways as - logging , security, methid profile, auditing etc</t>
-  </si>
-  <si>
     <t>Create central configuration for Cross Cutting Concerns and apply to all business methods which can be achieved through AOP</t>
   </si>
   <si>
@@ -197,7 +194,31 @@
     <t>Using Property name and Ref is how we inject Dependencies manually . Using @AutoWired we can automatically Inject the dependend Object/s. There are 3 types of Autowiring which byName, byType and constructor.</t>
   </si>
   <si>
-    <t>Spring JDBC</t>
+    <t>Spring AOP Exercise  (Internally uses reflection)</t>
+  </si>
+  <si>
+    <t>Cross cutting concerns are not part of business logic but will help the app in different ways as - logging , security, method profiling, auditing etc</t>
+  </si>
+  <si>
+    <t>Spring JDBC Concept</t>
+  </si>
+  <si>
+    <t>Service Class , DAO class and Client Application</t>
+  </si>
+  <si>
+    <t>Spring JDBC exercise using JDBCTemplate bean</t>
+  </si>
+  <si>
+    <t>NamedParameter JBDC Template bean using Hashmap in DAO</t>
+  </si>
+  <si>
+    <t>SQLParameterSource usage in DAO- part of spring related class. It is just like HashMap and use namedParameterJDBCTemplate bean</t>
+  </si>
+  <si>
+    <t>00:45:00,01:27:00</t>
+  </si>
+  <si>
+    <t>Transactions using Transaction Manager Bean</t>
   </si>
 </sst>
 </file>
@@ -247,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -257,6 +278,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -635,10 +660,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -664,18 +689,18 @@
         <v>45220</v>
       </c>
       <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -683,50 +708,50 @@
         <v>45221</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
         <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
         <v>39</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
         <v>41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
         <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
         <v>45</v>
-      </c>
-      <c r="C10" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -904,27 +929,27 @@
     </row>
     <row r="50" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B50" s="5" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B51" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C54" s="3">
         <v>0.1170486111111111</v>
@@ -935,10 +960,61 @@
         <v>45234</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C56" s="3">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B59" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" s="3">
         <v>1.2731481481481483E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>45235</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" s="3">
+        <v>8.3333333333333332E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" s="3">
+        <v>2.2222222222222223E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B64" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C64" s="3">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B65" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C65" s="3">
+        <v>5.0694444444444452E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B66" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -962,37 +1038,37 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Raj\git\edureka_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A12337-DE05-484B-9288-151412AC4DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4403341-12AF-44D1-87DE-5DF6D2FA21CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37935" yWindow="3720" windowWidth="13830" windowHeight="7965" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Topics</t>
   </si>
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t>Transactions using Transaction Manager Bean</t>
+  </si>
+  <si>
+    <t>IOC tells let the client class do not take object creation responsibility, let some external component create the objects required for the client and give it. This will give loose coupling.</t>
   </si>
 </sst>
 </file>
@@ -268,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -280,7 +283,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -662,8 +664,8 @@
   </sheetPr>
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -994,7 +996,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B64" s="7" t="s">
+      <c r="B64" t="s">
         <v>59</v>
       </c>
       <c r="C64" s="3">
@@ -1002,7 +1004,7 @@
       </c>
     </row>
     <row r="65" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="5" t="s">
         <v>60</v>
       </c>
       <c r="C65" s="3">
@@ -1010,7 +1012,7 @@
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B66" s="7" t="s">
+      <c r="B66" t="s">
         <v>62</v>
       </c>
       <c r="C66" s="3" t="s">
@@ -1025,10 +1027,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D71CDDC4-B53F-464F-9F5A-51154B9FF1E5}">
-  <dimension ref="A2:A12"/>
+  <dimension ref="A2:A14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1046,28 +1048,33 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+    <row r="14" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>53</v>
       </c>
     </row>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Raj\git\edureka_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4403341-12AF-44D1-87DE-5DF6D2FA21CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C5A98C-49DB-4240-82E7-264F799C9A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37935" yWindow="3720" windowWidth="13830" windowHeight="7965" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -271,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -281,9 +281,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -662,10 +659,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -1003,7 +1000,7 @@
         <v>3.4722222222222224E-2</v>
       </c>
     </row>
-    <row r="65" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B65" s="5" t="s">
         <v>60</v>
       </c>
@@ -1011,12 +1008,22 @@
         <v>5.0694444444444452E-2</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>62</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>45248</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>45249</v>
       </c>
     </row>
   </sheetData>
@@ -1029,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D71CDDC4-B53F-464F-9F5A-51154B9FF1E5}">
   <dimension ref="A2:A14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1049,7 +1056,7 @@
       </c>
     </row>
     <row r="6" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>63</v>
       </c>
     </row>
